--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1535711.556785965</v>
+        <v>1518405.168326924</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8265151.375676014</v>
+        <v>8112558.798638823</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11292051.21927721</v>
+        <v>11739719.61562467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5868360.753932135</v>
+        <v>5828676.786163672</v>
       </c>
     </row>
     <row r="11">
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>161.9098085356005</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K11" t="n">
         <v>220.0898510449805</v>
@@ -8708,7 +8710,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.0361980485666</v>
+        <v>132.9090570230344</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>104.5681348407838</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>48.44480612294392</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>52.73740107060324</v>
       </c>
       <c r="N12" t="n">
-        <v>109.0722202574505</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8787,7 +8789,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.7122822601387</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>78.10046438339171</v>
       </c>
       <c r="L13" t="n">
-        <v>112.6151844553554</v>
+        <v>45.48804342982321</v>
       </c>
       <c r="M13" t="n">
-        <v>116.6562921217222</v>
+        <v>49.52915109618998</v>
       </c>
       <c r="N13" t="n">
-        <v>105.4160526393503</v>
+        <v>38.28891161381812</v>
       </c>
       <c r="O13" t="n">
-        <v>116.1870466259599</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P13" t="n">
-        <v>115.4585122232648</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>87.68672441001351</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K14" t="n">
         <v>220.0898510449805</v>
@@ -8945,7 +8947,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>128.9465097577767</v>
+        <v>132.9090570230344</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6.163199883327223</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>33.47844654999392</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>72.05901102709106</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9015,16 +9017,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>41.94507923191823</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>40.61522729765747</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.28350947186203</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272334</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>35.65407805386261</v>
+        <v>39.6166253191203</v>
       </c>
       <c r="L16" t="n">
-        <v>41.52549616456551</v>
+        <v>45.48804342982321</v>
       </c>
       <c r="M16" t="n">
-        <v>45.56660383093228</v>
+        <v>49.52915109618998</v>
       </c>
       <c r="N16" t="n">
-        <v>34.32636434856042</v>
+        <v>38.28891161381812</v>
       </c>
       <c r="O16" t="n">
-        <v>45.09735833517001</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P16" t="n">
-        <v>44.36882393247484</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.14582151277307</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>87.68672441001351</v>
+        <v>78.08255436712474</v>
       </c>
       <c r="K17" t="n">
         <v>220.0898510449805</v>
@@ -9182,7 +9184,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>128.9465097577767</v>
+        <v>119.3423397148879</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>6.163199883327223</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.47844654999392</v>
+        <v>23.87427650710515</v>
       </c>
       <c r="K18" t="n">
-        <v>69.14317436020005</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9252,19 +9254,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>37.98253196666053</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>39.63289428488289</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>60.77531984677783</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>42.71615380440241</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>24.03207127983457</v>
       </c>
       <c r="K19" t="n">
-        <v>35.65407805386261</v>
+        <v>26.04990801097384</v>
       </c>
       <c r="L19" t="n">
-        <v>41.52549616456551</v>
+        <v>31.92132612167674</v>
       </c>
       <c r="M19" t="n">
-        <v>45.56660383093228</v>
+        <v>35.96243378804351</v>
       </c>
       <c r="N19" t="n">
-        <v>34.32636434856042</v>
+        <v>24.72219430567165</v>
       </c>
       <c r="O19" t="n">
-        <v>45.09735833517001</v>
+        <v>35.49318829228125</v>
       </c>
       <c r="P19" t="n">
-        <v>44.36882393247484</v>
+        <v>34.76465388958607</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.14582151277307</v>
+        <v>48.5416514698843</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>87.68672441001351</v>
+        <v>78.08255436712474</v>
       </c>
       <c r="K20" t="n">
         <v>220.0898510449805</v>
@@ -9419,7 +9421,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
-        <v>128.9465097577767</v>
+        <v>119.3423397148879</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.47844654999392</v>
+        <v>23.87427650710515</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>59.3479255406294</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>37.98253196666053</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>40.61522729765747</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>37.01842392645997</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>42.71615380440241</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272334</v>
+        <v>24.03207127983457</v>
       </c>
       <c r="K22" t="n">
-        <v>35.65407805386261</v>
+        <v>26.04990801097384</v>
       </c>
       <c r="L22" t="n">
-        <v>41.52549616456551</v>
+        <v>31.92132612167674</v>
       </c>
       <c r="M22" t="n">
-        <v>45.56660383093228</v>
+        <v>35.96243378804351</v>
       </c>
       <c r="N22" t="n">
-        <v>34.32636434856042</v>
+        <v>24.72219430567165</v>
       </c>
       <c r="O22" t="n">
-        <v>45.09735833517001</v>
+        <v>35.49318829228125</v>
       </c>
       <c r="P22" t="n">
-        <v>80.93594115162662</v>
+        <v>34.76465388958607</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.14582151277307</v>
+        <v>48.5416514698843</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>87.68672441001351</v>
+        <v>78.08255436712474</v>
       </c>
       <c r="K23" t="n">
         <v>220.0898510449805</v>
@@ -9656,7 +9658,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>128.9465097577767</v>
+        <v>119.3423397148879</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,25 +9713,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>33.47844654999392</v>
+        <v>23.87427650710515</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>45.19519966320141</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>69.47322204260151</v>
+        <v>39.17068376245678</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>39.63289428488289</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9738,7 +9740,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>42.71615380440241</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>24.03207127983457</v>
       </c>
       <c r="K25" t="n">
-        <v>35.65407805386261</v>
+        <v>68.02042413687275</v>
       </c>
       <c r="L25" t="n">
-        <v>41.52549616456551</v>
+        <v>31.92132612167674</v>
       </c>
       <c r="M25" t="n">
-        <v>45.56660383093228</v>
+        <v>35.96243378804351</v>
       </c>
       <c r="N25" t="n">
-        <v>34.32636434856042</v>
+        <v>24.72219430567165</v>
       </c>
       <c r="O25" t="n">
-        <v>45.09735833517001</v>
+        <v>35.49318829228125</v>
       </c>
       <c r="P25" t="n">
-        <v>44.36882393247484</v>
+        <v>34.76465388958607</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.14582151277307</v>
+        <v>48.5416514698843</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>72.77195183260446</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -9966,13 +9968,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>53.19961159302936</v>
       </c>
       <c r="P27" t="n">
-        <v>44.57777456291517</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>50.58514123460644</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10045,7 +10047,7 @@
         <v>38.28891161381812</v>
       </c>
       <c r="O28" t="n">
-        <v>49.05990560042771</v>
+        <v>90.77833426442263</v>
       </c>
       <c r="P28" t="n">
         <v>48.33137119773254</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>42.07555470550156</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K29" t="n">
         <v>220.0898510449805</v>
@@ -10130,7 +10132,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.33534005326476</v>
+        <v>132.9090570230344</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>37.44099381524897</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>40.31648856927566</v>
+        <v>52.73740107060324</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>3.625894623259711</v>
+        <v>53.19961159302936</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>44.57777456291517</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.011424264836791</v>
+        <v>50.58514123460644</v>
       </c>
       <c r="R30" t="n">
-        <v>6.709154142779227</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>39.6166253191203</v>
       </c>
       <c r="L31" t="n">
         <v>134.8846762812383</v>
@@ -10285,10 +10287,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q31" t="n">
-        <v>12.53465180826112</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>42.07555470550156</v>
+        <v>68.81046029018982</v>
       </c>
       <c r="K32" t="n">
         <v>220.0898510449805</v>
@@ -10367,7 +10369,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.33534005326476</v>
+        <v>110.070245637953</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,31 +10427,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>14.60218243017023</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>25.60599473786253</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>26.31893554337772</v>
       </c>
       <c r="M33" t="n">
-        <v>3.163684100833592</v>
+        <v>117.343359601667</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>19.10626784683684</v>
       </c>
       <c r="O33" t="n">
-        <v>3.625894623259711</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>21.73896317783378</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.011424264836791</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>39.99492705119393</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L34" t="n">
         <v>134.8846762812383</v>
@@ -10522,10 +10524,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q34" t="n">
-        <v>12.53465180826112</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>42.07555470550156</v>
+        <v>68.81046029018982</v>
       </c>
       <c r="K35" t="n">
         <v>220.0898510449805</v>
@@ -10604,7 +10606,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.33534005326476</v>
+        <v>110.070245637953</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,31 +10664,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>14.60218243017023</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>113.7637054595231</v>
       </c>
       <c r="M36" t="n">
-        <v>3.163684100833592</v>
+        <v>29.89858968552186</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>19.10626784683684</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>21.73896317783378</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.88122713194034</v>
+        <v>27.74632984952505</v>
       </c>
       <c r="R36" t="n">
-        <v>6.709154142779227</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L37" t="n">
         <v>134.8846762812383</v>
@@ -10759,10 +10761,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q37" t="n">
-        <v>12.53465180826112</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>42.07555470550156</v>
+        <v>68.81046029018982</v>
       </c>
       <c r="K38" t="n">
         <v>220.0898510449805</v>
@@ -10841,7 +10843,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.33534005326476</v>
+        <v>110.070245637953</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,31 +10901,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>14.60218243017023</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>113.0507646540079</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>26.31893554337772</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>19.10626784683684</v>
       </c>
       <c r="O39" t="n">
-        <v>3.625894623259711</v>
+        <v>30.36080020794797</v>
       </c>
       <c r="P39" t="n">
-        <v>32.15686206158759</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.011424264836791</v>
+        <v>27.74632984952505</v>
       </c>
       <c r="R39" t="n">
-        <v>6.709154142779227</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L40" t="n">
         <v>134.8846762812383</v>
@@ -10996,10 +10998,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q40" t="n">
-        <v>12.53465180826112</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>92.58897502622783</v>
+        <v>144.6403758334584</v>
       </c>
       <c r="K41" t="n">
         <v>220.0898510449805</v>
@@ -11078,7 +11080,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.6422846138899</v>
+        <v>185.9001611812216</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>6.174221406107122</v>
+        <v>90.43209797343908</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>17.89097451931461</v>
+        <v>102.1488510866463</v>
       </c>
       <c r="M42" t="n">
-        <v>21.47062866145875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>10.67830682277373</v>
+        <v>94.93618339010546</v>
       </c>
       <c r="O42" t="n">
-        <v>21.93283918388487</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>97.56887872110239</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.31836882546195</v>
+        <v>103.5762453927937</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11215,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.33201617883654</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>8.349852909975809</v>
+        <v>92.60772947730753</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
@@ -11233,10 +11235,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>17.06459878858804</v>
+        <v>101.3224753559198</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.84159636888627</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>144.6403758334586</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -11315,7 +11317,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>185.9001611812216</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,22 +11375,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>90.43209797343884</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>101.4359102811311</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>105.7285052287905</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>94.93618339010546</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>106.1907157512166</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -11455,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>92.60772947730753</v>
       </c>
       <c r="L46" t="n">
         <v>134.8846762812383</v>
@@ -11470,7 +11472,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>101.3224753559198</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>360.4643498375978</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C11" t="n">
-        <v>343.0033999451247</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D11" t="n">
-        <v>332.4135497948001</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E11" t="n">
-        <v>359.660878246379</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F11" t="n">
-        <v>384.6065539158286</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G11" t="n">
-        <v>393.0332456892522</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H11" t="n">
-        <v>317.2053102898843</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I11" t="n">
-        <v>188.2063977445231</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>127.5996261152668</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S11" t="n">
-        <v>186.7505777603625</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T11" t="n">
-        <v>200.8263577382485</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U11" t="n">
-        <v>229.0761610819536</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V11" t="n">
-        <v>305.482766644252</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W11" t="n">
-        <v>326.9714768915302</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X11" t="n">
-        <v>347.4616088525862</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y11" t="n">
-        <v>363.9684468301707</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>144.2636918239845</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C12" t="n">
-        <v>150.4390071624329</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D12" t="n">
-        <v>125.1755737387559</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E12" t="n">
-        <v>135.3755886295181</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F12" t="n">
-        <v>122.799720567501</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G12" t="n">
-        <v>115.0740253373278</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H12" t="n">
-        <v>89.96595241061361</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I12" t="n">
-        <v>67.12714102553223</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.88834232676028</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S12" t="n">
-        <v>149.413679277955</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T12" t="n">
-        <v>177.8952368689388</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U12" t="n">
-        <v>203.671890255092</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V12" t="n">
-        <v>210.5310953235424</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W12" t="n">
-        <v>229.4254913350368</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X12" t="n">
-        <v>183.5034933775946</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y12" t="n">
-        <v>183.4132039514215</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="13">
@@ -23413,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.5624883560544</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C13" t="n">
-        <v>144.977329272745</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D13" t="n">
-        <v>126.3459811923295</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E13" t="n">
-        <v>124.1644708206863</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F13" t="n">
-        <v>123.1515561970484</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G13" t="n">
-        <v>145.7214875325759</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H13" t="n">
-        <v>139.9576806815567</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I13" t="n">
-        <v>133.1809831013754</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J13" t="n">
-        <v>71.08968829078992</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.89255142581153</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>155.0238995512866</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S13" t="n">
-        <v>201.7471062110894</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T13" t="n">
-        <v>205.6760976023986</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U13" t="n">
-        <v>264.0495375306081</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V13" t="n">
-        <v>229.8681514979451</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W13" t="n">
-        <v>264.2535065107081</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X13" t="n">
-        <v>203.4401635631543</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.3151615262119</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>289.3746615468078</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C14" t="n">
-        <v>271.9137116543347</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D14" t="n">
-        <v>261.3238615040102</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E14" t="n">
-        <v>288.571189955589</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F14" t="n">
-        <v>313.5168656250387</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G14" t="n">
-        <v>321.9435573984623</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H14" t="n">
-        <v>246.1156219990944</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I14" t="n">
-        <v>117.1167094537331</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.50993782447691</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S14" t="n">
-        <v>115.6608894695726</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T14" t="n">
-        <v>129.7366694474586</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U14" t="n">
-        <v>157.9864727911637</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V14" t="n">
-        <v>234.3930783534621</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W14" t="n">
-        <v>255.8817886007402</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X14" t="n">
-        <v>276.3719205617963</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y14" t="n">
-        <v>292.8787585393808</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.17400353319456</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C15" t="n">
-        <v>79.34931887164296</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D15" t="n">
-        <v>54.08588544796598</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E15" t="n">
-        <v>64.28590033872817</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F15" t="n">
-        <v>51.7100322767111</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G15" t="n">
-        <v>43.98433704653786</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H15" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.798654035970358</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S15" t="n">
-        <v>78.32399098716505</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T15" t="n">
-        <v>106.8055485781488</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U15" t="n">
-        <v>132.582201964302</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V15" t="n">
-        <v>139.4414070327525</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3358030442468</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X15" t="n">
-        <v>112.4138050868047</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y15" t="n">
-        <v>112.3235156606316</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.47280006526452</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C16" t="n">
-        <v>73.88764098195506</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D16" t="n">
-        <v>55.25629290153958</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E16" t="n">
-        <v>53.0747825298964</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F16" t="n">
-        <v>52.06186790625847</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G16" t="n">
-        <v>74.63179924178598</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H16" t="n">
-        <v>68.8679923907668</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I16" t="n">
-        <v>62.09129481058551</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>83.93421126049671</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S16" t="n">
-        <v>130.6574179202995</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T16" t="n">
-        <v>134.5864093116087</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U16" t="n">
-        <v>192.9598492398181</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V16" t="n">
-        <v>158.7784632071552</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W16" t="n">
-        <v>193.1638182199182</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X16" t="n">
-        <v>132.3504752723644</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y16" t="n">
-        <v>125.225473235422</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>289.3746615468078</v>
+        <v>279.7704915039191</v>
       </c>
       <c r="C17" t="n">
-        <v>271.9137116543347</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D17" t="n">
-        <v>261.3238615040102</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E17" t="n">
-        <v>288.571189955589</v>
+        <v>278.9670199127003</v>
       </c>
       <c r="F17" t="n">
-        <v>313.5168656250387</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G17" t="n">
-        <v>321.9435573984623</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H17" t="n">
-        <v>246.1156219990944</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I17" t="n">
-        <v>117.1167094537331</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.50993782447691</v>
+        <v>46.90576778158814</v>
       </c>
       <c r="S17" t="n">
-        <v>115.6608894695726</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T17" t="n">
-        <v>129.7366694474586</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U17" t="n">
-        <v>157.9864727911637</v>
+        <v>148.382302748275</v>
       </c>
       <c r="V17" t="n">
-        <v>234.3930783534621</v>
+        <v>224.7889083105734</v>
       </c>
       <c r="W17" t="n">
-        <v>255.8817886007402</v>
+        <v>246.2776185578515</v>
       </c>
       <c r="X17" t="n">
-        <v>276.3719205617963</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.8787585393808</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.17400353319456</v>
+        <v>63.5698334903058</v>
       </c>
       <c r="C18" t="n">
-        <v>79.34931887164296</v>
+        <v>69.7451488287542</v>
       </c>
       <c r="D18" t="n">
-        <v>54.08588544796598</v>
+        <v>44.48171540507721</v>
       </c>
       <c r="E18" t="n">
-        <v>64.28590033872817</v>
+        <v>54.6817302958394</v>
       </c>
       <c r="F18" t="n">
-        <v>51.7100322767111</v>
+        <v>42.10586223382234</v>
       </c>
       <c r="G18" t="n">
-        <v>43.98433704653786</v>
+        <v>34.38016700364909</v>
       </c>
       <c r="H18" t="n">
-        <v>18.87626411982369</v>
+        <v>9.27209407693492</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>78.32399098716505</v>
+        <v>68.71982094427628</v>
       </c>
       <c r="T18" t="n">
-        <v>106.8055485781488</v>
+        <v>97.20137853526006</v>
       </c>
       <c r="U18" t="n">
-        <v>132.582201964302</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V18" t="n">
-        <v>139.4414070327525</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W18" t="n">
-        <v>158.3358030442468</v>
+        <v>148.7316330013581</v>
       </c>
       <c r="X18" t="n">
-        <v>112.4138050868047</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y18" t="n">
-        <v>112.3235156606316</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="19">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.47280006526452</v>
+        <v>76.86863002237575</v>
       </c>
       <c r="C19" t="n">
-        <v>73.88764098195506</v>
+        <v>64.28347093906629</v>
       </c>
       <c r="D19" t="n">
-        <v>55.25629290153958</v>
+        <v>45.65212285865081</v>
       </c>
       <c r="E19" t="n">
-        <v>53.0747825298964</v>
+        <v>43.47061248700763</v>
       </c>
       <c r="F19" t="n">
-        <v>52.06186790625847</v>
+        <v>42.4576978633697</v>
       </c>
       <c r="G19" t="n">
-        <v>74.63179924178598</v>
+        <v>65.02762919889722</v>
       </c>
       <c r="H19" t="n">
-        <v>68.8679923907668</v>
+        <v>59.26382234787803</v>
       </c>
       <c r="I19" t="n">
-        <v>62.09129481058551</v>
+        <v>52.48712476769674</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>83.93421126049671</v>
+        <v>74.33004121760794</v>
       </c>
       <c r="S19" t="n">
-        <v>130.6574179202995</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T19" t="n">
-        <v>134.5864093116087</v>
+        <v>124.98223926872</v>
       </c>
       <c r="U19" t="n">
-        <v>192.9598492398181</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V19" t="n">
-        <v>158.7784632071552</v>
+        <v>149.1742931642665</v>
       </c>
       <c r="W19" t="n">
-        <v>193.1638182199182</v>
+        <v>183.5596481770295</v>
       </c>
       <c r="X19" t="n">
-        <v>132.3504752723644</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.225473235422</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>289.3746615468078</v>
+        <v>279.7704915039191</v>
       </c>
       <c r="C20" t="n">
-        <v>271.9137116543347</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D20" t="n">
-        <v>261.3238615040102</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E20" t="n">
-        <v>288.571189955589</v>
+        <v>278.9670199127003</v>
       </c>
       <c r="F20" t="n">
-        <v>313.5168656250387</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G20" t="n">
-        <v>321.9435573984623</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H20" t="n">
-        <v>246.1156219990944</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I20" t="n">
-        <v>117.1167094537331</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>56.50993782447691</v>
+        <v>46.90576778158814</v>
       </c>
       <c r="S20" t="n">
-        <v>115.6608894695726</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T20" t="n">
-        <v>129.7366694474586</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U20" t="n">
-        <v>157.9864727911637</v>
+        <v>148.382302748275</v>
       </c>
       <c r="V20" t="n">
-        <v>234.3930783534621</v>
+        <v>224.7889083105734</v>
       </c>
       <c r="W20" t="n">
-        <v>255.8817886007402</v>
+        <v>246.2776185578515</v>
       </c>
       <c r="X20" t="n">
-        <v>276.3719205617963</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.8787585393808</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.17400353319456</v>
+        <v>63.5698334903058</v>
       </c>
       <c r="C21" t="n">
-        <v>79.34931887164296</v>
+        <v>69.7451488287542</v>
       </c>
       <c r="D21" t="n">
-        <v>54.08588544796598</v>
+        <v>44.48171540507721</v>
       </c>
       <c r="E21" t="n">
-        <v>64.28590033872817</v>
+        <v>54.6817302958394</v>
       </c>
       <c r="F21" t="n">
-        <v>51.7100322767111</v>
+        <v>42.10586223382234</v>
       </c>
       <c r="G21" t="n">
-        <v>43.98433704653786</v>
+        <v>34.38016700364909</v>
       </c>
       <c r="H21" t="n">
-        <v>18.87626411982369</v>
+        <v>9.27209407693492</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>78.32399098716505</v>
+        <v>68.71982094427628</v>
       </c>
       <c r="T21" t="n">
-        <v>106.8055485781488</v>
+        <v>97.20137853526006</v>
       </c>
       <c r="U21" t="n">
-        <v>132.582201964302</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V21" t="n">
-        <v>139.4414070327525</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W21" t="n">
-        <v>158.3358030442468</v>
+        <v>148.7316330013581</v>
       </c>
       <c r="X21" t="n">
-        <v>112.4138050868047</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y21" t="n">
-        <v>112.3235156606316</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="22">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.47280006526452</v>
+        <v>76.86863002237575</v>
       </c>
       <c r="C22" t="n">
-        <v>73.88764098195506</v>
+        <v>64.28347093906629</v>
       </c>
       <c r="D22" t="n">
-        <v>55.25629290153958</v>
+        <v>45.65212285865081</v>
       </c>
       <c r="E22" t="n">
-        <v>53.0747825298964</v>
+        <v>43.47061248700763</v>
       </c>
       <c r="F22" t="n">
-        <v>52.06186790625847</v>
+        <v>42.4576978633697</v>
       </c>
       <c r="G22" t="n">
-        <v>74.63179924178598</v>
+        <v>65.02762919889722</v>
       </c>
       <c r="H22" t="n">
-        <v>68.8679923907668</v>
+        <v>59.26382234787803</v>
       </c>
       <c r="I22" t="n">
-        <v>62.09129481058551</v>
+        <v>52.48712476769674</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.93421126049671</v>
+        <v>74.33004121760794</v>
       </c>
       <c r="S22" t="n">
-        <v>130.6574179202995</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T22" t="n">
-        <v>134.5864093116087</v>
+        <v>124.98223926872</v>
       </c>
       <c r="U22" t="n">
-        <v>192.9598492398181</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V22" t="n">
-        <v>158.7784632071552</v>
+        <v>149.1742931642665</v>
       </c>
       <c r="W22" t="n">
-        <v>193.1638182199182</v>
+        <v>183.5596481770295</v>
       </c>
       <c r="X22" t="n">
-        <v>132.3504752723644</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.225473235422</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>289.3746615468078</v>
+        <v>279.7704915039191</v>
       </c>
       <c r="C23" t="n">
-        <v>271.9137116543347</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D23" t="n">
-        <v>261.3238615040102</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E23" t="n">
-        <v>288.571189955589</v>
+        <v>278.9670199127003</v>
       </c>
       <c r="F23" t="n">
-        <v>313.5168656250387</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G23" t="n">
-        <v>321.9435573984623</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H23" t="n">
-        <v>246.1156219990944</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I23" t="n">
-        <v>117.1167094537331</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>56.50993782447691</v>
+        <v>46.90576778158814</v>
       </c>
       <c r="S23" t="n">
-        <v>115.6608894695726</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T23" t="n">
-        <v>129.7366694474586</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U23" t="n">
-        <v>157.9864727911637</v>
+        <v>148.382302748275</v>
       </c>
       <c r="V23" t="n">
-        <v>234.3930783534621</v>
+        <v>224.7889083105734</v>
       </c>
       <c r="W23" t="n">
-        <v>255.8817886007402</v>
+        <v>246.2776185578515</v>
       </c>
       <c r="X23" t="n">
-        <v>276.3719205617963</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.8787585393808</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.17400353319456</v>
+        <v>63.5698334903058</v>
       </c>
       <c r="C24" t="n">
-        <v>79.34931887164296</v>
+        <v>69.7451488287542</v>
       </c>
       <c r="D24" t="n">
-        <v>54.08588544796598</v>
+        <v>44.48171540507721</v>
       </c>
       <c r="E24" t="n">
-        <v>64.28590033872817</v>
+        <v>54.6817302958394</v>
       </c>
       <c r="F24" t="n">
-        <v>51.7100322767111</v>
+        <v>42.10586223382234</v>
       </c>
       <c r="G24" t="n">
-        <v>43.98433704653786</v>
+        <v>34.38016700364909</v>
       </c>
       <c r="H24" t="n">
-        <v>18.87626411982369</v>
+        <v>9.27209407693492</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>78.32399098716505</v>
+        <v>68.71982094427628</v>
       </c>
       <c r="T24" t="n">
-        <v>106.8055485781488</v>
+        <v>97.20137853526006</v>
       </c>
       <c r="U24" t="n">
-        <v>132.582201964302</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V24" t="n">
-        <v>139.4414070327525</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W24" t="n">
-        <v>158.3358030442468</v>
+        <v>148.7316330013581</v>
       </c>
       <c r="X24" t="n">
-        <v>112.4138050868047</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y24" t="n">
-        <v>112.3235156606316</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="25">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.47280006526452</v>
+        <v>76.86863002237575</v>
       </c>
       <c r="C25" t="n">
-        <v>73.88764098195506</v>
+        <v>64.28347093906629</v>
       </c>
       <c r="D25" t="n">
-        <v>55.25629290153958</v>
+        <v>45.65212285865081</v>
       </c>
       <c r="E25" t="n">
-        <v>53.0747825298964</v>
+        <v>43.47061248700763</v>
       </c>
       <c r="F25" t="n">
-        <v>52.06186790625847</v>
+        <v>42.4576978633697</v>
       </c>
       <c r="G25" t="n">
-        <v>74.63179924178598</v>
+        <v>65.02762919889722</v>
       </c>
       <c r="H25" t="n">
-        <v>68.8679923907668</v>
+        <v>59.26382234787803</v>
       </c>
       <c r="I25" t="n">
-        <v>62.09129481058551</v>
+        <v>52.48712476769674</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>83.93421126049671</v>
+        <v>74.33004121760794</v>
       </c>
       <c r="S25" t="n">
-        <v>130.6574179202995</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T25" t="n">
-        <v>134.5864093116087</v>
+        <v>124.98223926872</v>
       </c>
       <c r="U25" t="n">
-        <v>192.9598492398181</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V25" t="n">
-        <v>158.7784632071552</v>
+        <v>149.1742931642665</v>
       </c>
       <c r="W25" t="n">
-        <v>193.1638182199182</v>
+        <v>183.5596481770295</v>
       </c>
       <c r="X25" t="n">
-        <v>132.3504752723644</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.225473235422</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="26">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>243.7634918422958</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
-        <v>226.3025419498228</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>215.7126917994982</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>242.9600202510771</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
-        <v>267.9056959205267</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
-        <v>276.3323876939503</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H29" t="n">
-        <v>200.5044522945824</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I29" t="n">
-        <v>71.50553974922119</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>10.89876811996496</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>70.04971976506062</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>84.12549974294663</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>112.3753030866518</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>188.7819086489502</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>210.2706188962283</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
-        <v>230.7607508572843</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>247.2675888348689</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>27.56283382868261</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>33.73814916713101</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>8.474715743454027</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>18.67473063421622</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>6.098862572199153</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>32.7128212826531</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>61.19437887363688</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>86.97103225979009</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>93.83023732824054</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>112.7246333397349</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>66.80263538229275</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
-        <v>66.71234595611963</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.86163036075257</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
-        <v>28.27647127744311</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>9.64512319702763</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
-        <v>7.463612825384445</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>6.450698201746519</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>29.02062953727403</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>23.25682268625485</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>16.48012510607356</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>38.32304155598476</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>85.04624821578753</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>88.97523960709677</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>147.3486795353062</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>113.1672935026433</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>147.5526485154063</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>86.73930556785243</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.61430353091006</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>243.7634918422958</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C32" t="n">
-        <v>226.3025419498228</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D32" t="n">
-        <v>215.7126917994982</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E32" t="n">
-        <v>242.9600202510771</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F32" t="n">
-        <v>267.9056959205267</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G32" t="n">
-        <v>276.3323876939503</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H32" t="n">
-        <v>200.5044522945824</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I32" t="n">
-        <v>71.50553974922119</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>10.89876811996496</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S32" t="n">
-        <v>70.04971976506062</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T32" t="n">
-        <v>84.12549974294663</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
-        <v>112.3753030866518</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V32" t="n">
-        <v>188.7819086489502</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W32" t="n">
-        <v>210.2706188962283</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X32" t="n">
-        <v>230.7607508572843</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.2675888348689</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>27.56283382868261</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C33" t="n">
-        <v>33.73814916713101</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D33" t="n">
-        <v>8.474715743454027</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E33" t="n">
-        <v>18.67473063421622</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F33" t="n">
-        <v>6.098862572199153</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>32.7128212826531</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T33" t="n">
-        <v>61.19437887363688</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U33" t="n">
-        <v>86.97103225979009</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V33" t="n">
-        <v>93.83023732824054</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W33" t="n">
-        <v>112.7246333397349</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X33" t="n">
-        <v>66.80263538229275</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y33" t="n">
-        <v>66.71234595611963</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.86163036075257</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C34" t="n">
-        <v>28.27647127744311</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D34" t="n">
-        <v>9.64512319702763</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E34" t="n">
-        <v>7.463612825384445</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
-        <v>6.450698201746519</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G34" t="n">
-        <v>29.02062953727403</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H34" t="n">
-        <v>23.25682268625485</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
-        <v>16.48012510607356</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.32304155598476</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S34" t="n">
-        <v>85.04624821578753</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T34" t="n">
-        <v>88.97523960709677</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U34" t="n">
-        <v>147.3486795353062</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V34" t="n">
-        <v>113.1672935026433</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W34" t="n">
-        <v>147.5526485154063</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X34" t="n">
-        <v>86.73930556785243</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.61430353091006</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>243.7634918422958</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C35" t="n">
-        <v>226.3025419498228</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D35" t="n">
-        <v>215.7126917994982</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E35" t="n">
-        <v>242.9600202510771</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F35" t="n">
-        <v>267.9056959205267</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G35" t="n">
-        <v>276.3323876939503</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H35" t="n">
-        <v>200.5044522945824</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I35" t="n">
-        <v>71.50553974922119</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>10.89876811996496</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
-        <v>70.04971976506062</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T35" t="n">
-        <v>84.12549974294663</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U35" t="n">
-        <v>112.3753030866518</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
-        <v>188.7819086489502</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W35" t="n">
-        <v>210.2706188962283</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X35" t="n">
-        <v>230.7607508572843</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y35" t="n">
-        <v>247.2675888348689</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>27.56283382868261</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C36" t="n">
-        <v>33.73814916713101</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D36" t="n">
-        <v>8.474715743454027</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
-        <v>18.67473063421622</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
-        <v>6.098862572199153</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>32.7128212826531</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T36" t="n">
-        <v>61.19437887363688</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U36" t="n">
-        <v>86.97103225979009</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V36" t="n">
-        <v>93.83023732824054</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W36" t="n">
-        <v>112.7246333397349</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X36" t="n">
-        <v>66.80263538229275</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y36" t="n">
-        <v>66.71234595611963</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.86163036075257</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
-        <v>28.27647127744311</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D37" t="n">
-        <v>9.64512319702763</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E37" t="n">
-        <v>7.463612825384445</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
-        <v>6.450698201746519</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
-        <v>29.02062953727403</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>23.25682268625485</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>16.48012510607356</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>38.32304155598476</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>85.04624821578753</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
-        <v>88.97523960709677</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
-        <v>147.3486795353062</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
-        <v>113.1672935026433</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
-        <v>147.5526485154063</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>86.73930556785243</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
-        <v>79.61430353091006</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>243.7634918422958</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C38" t="n">
-        <v>226.3025419498228</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D38" t="n">
-        <v>215.7126917994982</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E38" t="n">
-        <v>242.9600202510771</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F38" t="n">
-        <v>267.9056959205267</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G38" t="n">
-        <v>276.3323876939503</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H38" t="n">
-        <v>200.5044522945824</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I38" t="n">
-        <v>71.50553974922119</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>10.89876811996496</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S38" t="n">
-        <v>70.04971976506062</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T38" t="n">
-        <v>84.12549974294663</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U38" t="n">
-        <v>112.3753030866518</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V38" t="n">
-        <v>188.7819086489502</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W38" t="n">
-        <v>210.2706188962283</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X38" t="n">
-        <v>230.7607508572843</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y38" t="n">
-        <v>247.2675888348689</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27.56283382868261</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C39" t="n">
-        <v>33.73814916713101</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D39" t="n">
-        <v>8.474715743454027</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E39" t="n">
-        <v>18.67473063421622</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F39" t="n">
-        <v>6.098862572199153</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>32.7128212826531</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T39" t="n">
-        <v>61.19437887363688</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U39" t="n">
-        <v>86.97103225979009</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V39" t="n">
-        <v>93.83023732824054</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W39" t="n">
-        <v>112.7246333397349</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X39" t="n">
-        <v>66.80263538229275</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y39" t="n">
-        <v>66.71234595611963</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40.86163036075257</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C40" t="n">
-        <v>28.27647127744311</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D40" t="n">
-        <v>9.64512319702763</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E40" t="n">
-        <v>7.463612825384445</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F40" t="n">
-        <v>6.450698201746519</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G40" t="n">
-        <v>29.02062953727403</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H40" t="n">
-        <v>23.25682268625485</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I40" t="n">
-        <v>16.48012510607356</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.32304155598476</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S40" t="n">
-        <v>85.04624821578753</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T40" t="n">
-        <v>88.97523960709677</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U40" t="n">
-        <v>147.3486795353062</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V40" t="n">
-        <v>113.1672935026433</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W40" t="n">
-        <v>147.5526485154063</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X40" t="n">
-        <v>86.73930556785243</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y40" t="n">
-        <v>79.61430353091006</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.070436402921</v>
+        <v>346.3283129702527</v>
       </c>
       <c r="C41" t="n">
-        <v>244.609486510448</v>
+        <v>328.8673630777797</v>
       </c>
       <c r="D41" t="n">
-        <v>234.0196363601234</v>
+        <v>318.2775129274551</v>
       </c>
       <c r="E41" t="n">
-        <v>261.2669648117022</v>
+        <v>345.5248413790339</v>
       </c>
       <c r="F41" t="n">
-        <v>286.2126404811519</v>
+        <v>370.4705170484836</v>
       </c>
       <c r="G41" t="n">
-        <v>294.6393322545755</v>
+        <v>378.8972088219072</v>
       </c>
       <c r="H41" t="n">
-        <v>218.8113968552076</v>
+        <v>303.0692734225393</v>
       </c>
       <c r="I41" t="n">
-        <v>89.81248430984634</v>
+        <v>174.0703608771781</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>29.20571268059011</v>
+        <v>113.4635892479218</v>
       </c>
       <c r="S41" t="n">
-        <v>88.35666432568577</v>
+        <v>172.6145408930175</v>
       </c>
       <c r="T41" t="n">
-        <v>102.4324443035718</v>
+        <v>186.6903208709035</v>
       </c>
       <c r="U41" t="n">
-        <v>130.6822476472769</v>
+        <v>214.9401242146087</v>
       </c>
       <c r="V41" t="n">
-        <v>207.0888532095753</v>
+        <v>291.3467297769071</v>
       </c>
       <c r="W41" t="n">
-        <v>228.5775634568535</v>
+        <v>312.8354400241852</v>
       </c>
       <c r="X41" t="n">
-        <v>249.0676954179095</v>
+        <v>333.3255719852412</v>
       </c>
       <c r="Y41" t="n">
-        <v>265.574533395494</v>
+        <v>349.8324099628257</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>45.86977838930777</v>
+        <v>130.1276549566395</v>
       </c>
       <c r="C42" t="n">
-        <v>52.04509372775617</v>
+        <v>136.3029702950879</v>
       </c>
       <c r="D42" t="n">
-        <v>26.78166030407918</v>
+        <v>111.0395368714109</v>
       </c>
       <c r="E42" t="n">
-        <v>36.98167519484137</v>
+        <v>121.2395517621731</v>
       </c>
       <c r="F42" t="n">
-        <v>24.40580713282431</v>
+        <v>108.663683700156</v>
       </c>
       <c r="G42" t="n">
-        <v>16.68011190265106</v>
+        <v>100.9379884699828</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>75.82991554326861</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>52.99110415818723</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>63.75230545941528</v>
       </c>
       <c r="S42" t="n">
-        <v>51.01976584327825</v>
+        <v>135.27764241061</v>
       </c>
       <c r="T42" t="n">
-        <v>79.50132343426203</v>
+        <v>163.7592000015937</v>
       </c>
       <c r="U42" t="n">
-        <v>105.2779768204152</v>
+        <v>189.535853387747</v>
       </c>
       <c r="V42" t="n">
-        <v>112.1371818888657</v>
+        <v>196.3950584561974</v>
       </c>
       <c r="W42" t="n">
-        <v>131.03157790036</v>
+        <v>215.2894544676918</v>
       </c>
       <c r="X42" t="n">
-        <v>85.1095799429179</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y42" t="n">
-        <v>85.01929051674479</v>
+        <v>169.2771670840765</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.16857492137773</v>
+        <v>143.4264514887095</v>
       </c>
       <c r="C43" t="n">
-        <v>46.58341583806826</v>
+        <v>130.8412924054</v>
       </c>
       <c r="D43" t="n">
-        <v>27.95206775765278</v>
+        <v>112.2099443249845</v>
       </c>
       <c r="E43" t="n">
-        <v>25.7705573860096</v>
+        <v>110.0284339533413</v>
       </c>
       <c r="F43" t="n">
-        <v>24.75764276237167</v>
+        <v>109.0155193297034</v>
       </c>
       <c r="G43" t="n">
-        <v>47.32757409789919</v>
+        <v>131.5854506652309</v>
       </c>
       <c r="H43" t="n">
-        <v>41.56376724688</v>
+        <v>125.8216438142117</v>
       </c>
       <c r="I43" t="n">
-        <v>34.78706966669871</v>
+        <v>119.0449462340304</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>56.95365142344492</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>49.75651455846653</v>
       </c>
       <c r="R43" t="n">
-        <v>56.62998611660991</v>
+        <v>140.8878626839416</v>
       </c>
       <c r="S43" t="n">
-        <v>103.3531927764127</v>
+        <v>187.6110693437444</v>
       </c>
       <c r="T43" t="n">
-        <v>107.2821841677219</v>
+        <v>191.5400607350537</v>
       </c>
       <c r="U43" t="n">
-        <v>165.6556240959313</v>
+        <v>249.9135006632631</v>
       </c>
       <c r="V43" t="n">
-        <v>131.4742380632684</v>
+        <v>215.7321146306002</v>
       </c>
       <c r="W43" t="n">
-        <v>165.8595930760314</v>
+        <v>250.1174696433632</v>
       </c>
       <c r="X43" t="n">
-        <v>105.0462501284776</v>
+        <v>189.3041266958093</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.92124809153522</v>
+        <v>182.179124658867</v>
       </c>
     </row>
     <row r="44">
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>346.3283129702527</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>328.8673630777797</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>318.2775129274551</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>345.5248413790339</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>370.4705170484836</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>378.8972088219072</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>303.0692734225393</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>174.0703608771781</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>113.4635892479218</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>172.6145408930175</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>186.6903208709035</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>214.9401242146087</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>291.3467297769071</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>312.8354400241852</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>333.3255719852412</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>349.8324099628257</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>130.1276549566395</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>136.3029702950879</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>111.0395368714109</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>121.2395517621731</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>108.663683700156</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>100.9379884699828</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>75.82991554326861</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>52.99110415818723</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>63.75230545941528</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>135.27764241061</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>163.7592000015937</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>189.535853387747</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>196.3950584561974</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>215.2894544676918</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>169.2771670840765</v>
       </c>
     </row>
     <row r="46">
@@ -26020,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4264514887095</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>130.8412924054</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>112.2099443249845</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0284339533413</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>109.0155193297034</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>131.5854506652309</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>125.8216438142117</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>119.0449462340304</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>56.95365142344492</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,34 +26064,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>49.75651455846653</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>140.8878626839416</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>187.6110693437444</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>191.5400607350537</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>249.9135006632631</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>215.7321146306002</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>250.1174696433632</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>189.3041266958093</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>182.179124658867</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>341220.8930356505</v>
+        <v>452253.2756782529</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>458445.6275406166</v>
+        <v>452253.275678253</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>458445.6275406166</v>
+        <v>472965.0206064279</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>458445.6275406166</v>
+        <v>472965.0206064279</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>458445.6275406166</v>
+        <v>472965.020606428</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>452253.2756782529</v>
+        <v>452253.275678253</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>524203.1156470113</v>
+        <v>452253.2756782529</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>524203.1156470113</v>
+        <v>486592.7735969439</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>524203.1156470113</v>
+        <v>486592.7735969439</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>524203.1156470113</v>
+        <v>486592.7735969439</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498479.5698252826</v>
+        <v>364625.6465561762</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>301020.7354880499</v>
+        <v>364625.6465561762</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>778312.5217811861</v>
+      </c>
+      <c r="C2" t="n">
         <v>778312.5217811865</v>
-      </c>
-      <c r="C2" t="n">
-        <v>778312.5217811866</v>
       </c>
       <c r="D2" t="n">
         <v>778312.5217811863</v>
       </c>
       <c r="E2" t="n">
-        <v>256958.9834936195</v>
+        <v>408914.7838453704</v>
       </c>
       <c r="F2" t="n">
-        <v>417639.203410234</v>
+        <v>408914.7838453706</v>
       </c>
       <c r="G2" t="n">
-        <v>417639.2034102342</v>
+        <v>438452.9154153265</v>
       </c>
       <c r="H2" t="n">
-        <v>417639.2034102341</v>
+        <v>438452.9154153268</v>
       </c>
       <c r="I2" t="n">
-        <v>417639.203410234</v>
+        <v>438452.9154153265</v>
       </c>
       <c r="J2" t="n">
+        <v>408914.7838453706</v>
+      </c>
+      <c r="K2" t="n">
         <v>408914.7838453704</v>
       </c>
-      <c r="K2" t="n">
-        <v>514316.5143552464</v>
-      </c>
       <c r="L2" t="n">
-        <v>514316.5143552466</v>
+        <v>458282.5866920232</v>
       </c>
       <c r="M2" t="n">
-        <v>514316.5143552466</v>
+        <v>458282.5866920231</v>
       </c>
       <c r="N2" t="n">
-        <v>514316.5143552464</v>
+        <v>458282.5866920232</v>
       </c>
       <c r="O2" t="n">
-        <v>475967.4829864769</v>
+        <v>288974.2797907824</v>
       </c>
       <c r="P2" t="n">
-        <v>204264.0705097481</v>
+        <v>288974.2797907825</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>17815.59346070628</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="F3" t="n">
-        <v>56871.75063263194</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>10853.37384651717</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14645.55564850012</v>
+        <v>60663.93243461489</v>
       </c>
       <c r="K3" t="n">
-        <v>96530.72420844766</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>29124.42295458228</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>160464.9944634635</v>
+        <v>250936.2960691124</v>
       </c>
       <c r="F4" t="n">
-        <v>256121.74195105</v>
+        <v>250936.2960691124</v>
       </c>
       <c r="G4" t="n">
-        <v>256121.74195105</v>
+        <v>268480.2235086657</v>
       </c>
       <c r="H4" t="n">
-        <v>256121.7419510501</v>
+        <v>268480.2235086656</v>
       </c>
       <c r="I4" t="n">
-        <v>256121.7419510501</v>
+        <v>268480.2235086657</v>
       </c>
       <c r="J4" t="n">
         <v>250936.2960691124</v>
       </c>
       <c r="K4" t="n">
-        <v>313443.4554626904</v>
+        <v>250936.2960691124</v>
       </c>
       <c r="L4" t="n">
-        <v>313443.4554626903</v>
+        <v>280244.4178675696</v>
       </c>
       <c r="M4" t="n">
-        <v>313443.4554626904</v>
+        <v>280244.4178675696</v>
       </c>
       <c r="N4" t="n">
-        <v>313443.4554626904</v>
+        <v>280244.4178675696</v>
       </c>
       <c r="O4" t="n">
-        <v>290723.1906032612</v>
+        <v>179526.7936848579</v>
       </c>
       <c r="P4" t="n">
-        <v>129008.8866377357</v>
+        <v>179526.7936848579</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1872.173908310146</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="F5" t="n">
-        <v>7848.612913228564</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="G5" t="n">
-        <v>7848.612913228564</v>
+        <v>8656.02588456418</v>
       </c>
       <c r="H5" t="n">
-        <v>7848.612913228564</v>
+        <v>8656.02588456418</v>
       </c>
       <c r="I5" t="n">
-        <v>7848.612913228564</v>
+        <v>8656.02588456418</v>
       </c>
       <c r="J5" t="n">
         <v>7515.485527185614</v>
       </c>
       <c r="K5" t="n">
-        <v>11683.09833911718</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="L5" t="n">
-        <v>11683.09833911718</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="M5" t="n">
-        <v>11683.09833911718</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="N5" t="n">
-        <v>11683.09833911718</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="O5" t="n">
-        <v>10144.05181684998</v>
+        <v>3060.576391710972</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3060.576391710972</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277068.9618494552</v>
+        <v>277068.9618494549</v>
       </c>
       <c r="C6" t="n">
         <v>277068.9618494553</v>
@@ -26528,40 +26530,40 @@
         <v>277068.9618494551</v>
       </c>
       <c r="E6" t="n">
-        <v>76806.22166113964</v>
+        <v>78945.69596794038</v>
       </c>
       <c r="F6" t="n">
-        <v>96797.09791332344</v>
+        <v>150463.0022490727</v>
       </c>
       <c r="G6" t="n">
-        <v>153668.8485459557</v>
+        <v>150463.2921755795</v>
       </c>
       <c r="H6" t="n">
-        <v>153668.8485459554</v>
+        <v>161316.666022097</v>
       </c>
       <c r="I6" t="n">
-        <v>153668.8485459554</v>
+        <v>161316.6660220967</v>
       </c>
       <c r="J6" t="n">
-        <v>135817.4466005723</v>
+        <v>89799.06981445779</v>
       </c>
       <c r="K6" t="n">
-        <v>92659.23634499121</v>
+        <v>150463.0022490724</v>
       </c>
       <c r="L6" t="n">
-        <v>189189.960553439</v>
+        <v>139478.2243083533</v>
       </c>
       <c r="M6" t="n">
-        <v>189189.960553439</v>
+        <v>168602.6472629355</v>
       </c>
       <c r="N6" t="n">
-        <v>189189.9605534388</v>
+        <v>168602.6472629356</v>
       </c>
       <c r="O6" t="n">
-        <v>175100.2405663657</v>
+        <v>106386.9097142135</v>
       </c>
       <c r="P6" t="n">
-        <v>75255.18387201245</v>
+        <v>106386.9097142136</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G2" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H2" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I2" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J2" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M2" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N2" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>71.08968829078992</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.56671730814647</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.30694456062515</v>
+        <v>75.82991554326861</v>
       </c>
       <c r="K2" t="n">
-        <v>120.6634052605596</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>71.08968829078992</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13.56671730814647</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.30694456062515</v>
+        <v>75.82991554326861</v>
       </c>
       <c r="P2" t="n">
-        <v>120.6634052605596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,31 +28089,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J11" t="n">
-        <v>19.13609599108579</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28132,31 +28134,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="12">
@@ -28166,43 +28168,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N12" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -28211,31 +28213,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>50.91279378714368</v>
       </c>
       <c r="L13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.26949182588285</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.26949182588285</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28369,31 +28371,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="15">
@@ -28403,34 +28405,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>65.78242794726793</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -28439,40 +28441,40 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.69826461415948</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="17">
@@ -28561,31 +28563,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28606,31 +28608,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="18">
@@ -28640,34 +28642,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I18" t="n">
-        <v>93.35918011667277</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K18" t="n">
-        <v>68.69826461415894</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -28676,40 +28678,40 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>79.20645423924368</v>
       </c>
       <c r="R18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="L19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="M19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="N19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="O19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="P19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28800,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28843,31 +28845,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="21">
@@ -28877,76 +28879,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>79.20645423924478</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="L22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="M22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="N22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="O22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="P22" t="n">
-        <v>56.79206289752099</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29037,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29080,31 +29082,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="24">
@@ -29114,46 +29116,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>72.66081187941681</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -29162,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K25" t="n">
-        <v>93.35918011667277</v>
+        <v>60.99283403366264</v>
       </c>
       <c r="L25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="M25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="N25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="O25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="P25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="26">
@@ -29381,7 +29383,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>65.78242794726972</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -29390,13 +29392,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>89.39663285141508</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>89.39663285141508</v>
@@ -29469,7 +29471,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="O28" t="n">
-        <v>89.39663285141508</v>
+        <v>47.67820418742016</v>
       </c>
       <c r="P28" t="n">
         <v>89.39663285141508</v>
@@ -29509,31 +29511,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29554,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y29" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>89.39663285141772</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>101.8175453527427</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y30" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29709,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>137.7280040491476</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.9703498211847</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29748,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29791,31 +29793,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y32" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29827,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C33" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D33" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E33" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F33" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -29849,52 +29851,52 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M33" t="n">
-        <v>138.9703498211847</v>
+        <v>24.79067432035136</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O33" t="n">
-        <v>138.9703498211847</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q33" t="n">
-        <v>138.9703498211847</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>105.68457691277</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T33" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U33" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V33" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W33" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X33" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y33" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="34">
@@ -29904,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29946,34 +29948,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="35">
@@ -29983,31 +29985,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30028,31 +30030,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y35" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="36">
@@ -30062,22 +30064,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C36" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D36" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E36" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F36" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -30086,52 +30088,52 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>24.79067432035109</v>
       </c>
       <c r="M36" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.1005469540812</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R36" t="n">
-        <v>138.9703498211847</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T36" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U36" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V36" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W36" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X36" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y36" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,34 +30185,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>137.7280040491476</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="38">
@@ -30220,31 +30222,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30265,31 +30267,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y38" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30301,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -30323,52 +30325,52 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>24.79067432035109</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P39" t="n">
-        <v>101.8175453527427</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R39" t="n">
-        <v>138.9703498211847</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y39" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,34 +30422,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.9703498211847</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J41" t="n">
-        <v>88.45692950045846</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30502,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="R41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y41" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322762</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="M42" t="n">
-        <v>120.6634052605596</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="O42" t="n">
-        <v>120.6634052605596</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Q42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y42" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="K43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30657,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="R43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.6634052605596</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="44">
@@ -30694,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>36.40552869322764</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30739,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="45">
@@ -30773,46 +30775,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -30821,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
     <row r="46">
@@ -30852,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30894,34 +30896,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>36.40552869322785</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1518405.168326924</v>
+        <v>1464240.581996305</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8112558.798638823</v>
+        <v>8112558.798638825</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11739719.61562467</v>
+        <v>11739719.61562466</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5828676.786163672</v>
+        <v>5828676.786163674</v>
       </c>
     </row>
     <row r="11">
@@ -8698,13 +8698,13 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>140.9496003758576</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>140.0164307451759</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>140.7015785702716</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>37.44099381525162</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>48.44480612294392</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>52.73740107060324</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8850,25 +8850,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>78.10046438339171</v>
+        <v>54.08665122994798</v>
       </c>
       <c r="L13" t="n">
-        <v>45.48804342982321</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
-        <v>49.52915109618998</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
-        <v>38.28891161381812</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O13" t="n">
-        <v>49.05990560042771</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>48.33137119773254</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>140.9496003758576</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>140.0164307451759</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>37.44099381525162</v>
+        <v>67.65582363651774</v>
       </c>
       <c r="K15" t="n">
-        <v>72.05901102709106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9017,7 +9017,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>41.94507923191823</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9090,7 +9090,7 @@
         <v>39.6166253191203</v>
       </c>
       <c r="L16" t="n">
-        <v>45.48804342982321</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M16" t="n">
         <v>49.52915109618998</v>
@@ -9099,10 +9099,10 @@
         <v>38.28891161381812</v>
       </c>
       <c r="O16" t="n">
-        <v>49.05990560042771</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>48.33137119773254</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>62.10836877803077</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>78.08255436712474</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>117.1265008854189</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>132.8030648104256</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>127.3828830677111</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>127.1348612621251</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>119.3423397148879</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>23.87427650710515</v>
+        <v>23.87427650710509</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -9257,16 +9257,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>39.63289428488289</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.77531984677783</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71615380440241</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>24.03207127983457</v>
+        <v>24.03207127983451</v>
       </c>
       <c r="K19" t="n">
-        <v>26.04990801097384</v>
+        <v>43.16462613542971</v>
       </c>
       <c r="L19" t="n">
-        <v>31.92132612167674</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
-        <v>35.96243378804351</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
-        <v>24.72219430567165</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
-        <v>35.49318829228125</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>34.76465388958607</v>
+        <v>34.76465388958601</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.5416514698843</v>
+        <v>48.54165146988424</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>78.08255436712474</v>
+        <v>78.08255436712469</v>
       </c>
       <c r="K20" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>132.8030648104256</v>
       </c>
       <c r="M20" t="n">
         <v>230.3462332272727</v>
@@ -9415,7 +9415,7 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>127.1348612621251</v>
       </c>
       <c r="P20" t="n">
         <v>231.2329957552695</v>
@@ -9479,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>23.87427650710515</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>59.3479255406294</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -9500,10 +9500,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.01842392645997</v>
+        <v>37.01842392645992</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71615380440241</v>
+        <v>42.71615380440235</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>24.03207127983457</v>
+        <v>24.03207127983451</v>
       </c>
       <c r="K22" t="n">
-        <v>26.04990801097384</v>
+        <v>26.04990801097378</v>
       </c>
       <c r="L22" t="n">
-        <v>31.92132612167674</v>
+        <v>31.92132612167669</v>
       </c>
       <c r="M22" t="n">
-        <v>35.96243378804351</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>24.72219430567165</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>35.49318829228125</v>
+        <v>91.80045817897999</v>
       </c>
       <c r="P22" t="n">
-        <v>34.76465388958607</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.5416514698843</v>
+        <v>48.54165146988424</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>78.08255436712474</v>
+        <v>78.08255436712469</v>
       </c>
       <c r="K23" t="n">
         <v>220.0898510449805</v>
@@ -9716,22 +9716,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>23.87427650710515</v>
+        <v>23.87427650710509</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>58.63498473512355</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>35.59102962031258</v>
       </c>
       <c r="M24" t="n">
-        <v>39.17068376245678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>39.63289428488289</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9740,7 +9740,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71615380440241</v>
+        <v>42.71615380440235</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>24.03207127983457</v>
+        <v>24.03207127983451</v>
       </c>
       <c r="K25" t="n">
-        <v>68.02042413687275</v>
+        <v>26.04990801097378</v>
       </c>
       <c r="L25" t="n">
-        <v>31.92132612167674</v>
+        <v>31.92132612167669</v>
       </c>
       <c r="M25" t="n">
-        <v>35.96243378804351</v>
+        <v>35.96243378804346</v>
       </c>
       <c r="N25" t="n">
-        <v>24.72219430567165</v>
+        <v>24.72219430567159</v>
       </c>
       <c r="O25" t="n">
-        <v>35.49318829228125</v>
+        <v>35.49318829228119</v>
       </c>
       <c r="P25" t="n">
-        <v>34.76465388958607</v>
+        <v>34.76465388958601</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.5416514698843</v>
+        <v>48.54165146988424</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>91.64927167527121</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>130.6932181935655</v>
       </c>
       <c r="L26" t="n">
         <v>235.7664149699872</v>
@@ -9968,7 +9968,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>53.19961159302936</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10035,19 +10035,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>39.6166253191203</v>
+        <v>41.10656919997741</v>
       </c>
       <c r="L28" t="n">
         <v>45.48804342982321</v>
       </c>
       <c r="M28" t="n">
-        <v>49.52915109618998</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N28" t="n">
-        <v>38.28891161381812</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O28" t="n">
-        <v>90.77833426442263</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P28" t="n">
         <v>48.33137119773254</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>37.44099381524897</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>48.44480612294416</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>49.1577469284591</v>
       </c>
       <c r="M30" t="n">
-        <v>52.73740107060324</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -10211,7 +10211,7 @@
         <v>44.57777456291517</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.58514123460644</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,22 +10430,22 @@
         <v>14.60218243017023</v>
       </c>
       <c r="K33" t="n">
-        <v>25.60599473786253</v>
+        <v>51.06170606831333</v>
       </c>
       <c r="L33" t="n">
         <v>26.31893554337772</v>
       </c>
       <c r="M33" t="n">
-        <v>117.343359601667</v>
+        <v>29.89858968552186</v>
       </c>
       <c r="N33" t="n">
         <v>19.10626784683684</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>30.36080020794797</v>
       </c>
       <c r="P33" t="n">
-        <v>21.73896317783378</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10524,7 +10524,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>25.49255981265115</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>39.26955739294938</v>
@@ -10667,10 +10667,10 @@
         <v>14.60218243017023</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>125.1283747378582</v>
       </c>
       <c r="L36" t="n">
-        <v>113.7637054595231</v>
+        <v>26.31893554337772</v>
       </c>
       <c r="M36" t="n">
         <v>29.89858968552186</v>
@@ -10685,10 +10685,10 @@
         <v>21.73896317783378</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.74632984952505</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>33.44405972746749</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>68.81046029018982</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>107.8544068084841</v>
       </c>
       <c r="L38" t="n">
         <v>235.7664149699872</v>
@@ -10837,7 +10837,7 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8627671851903</v>
       </c>
       <c r="P38" t="n">
         <v>231.2329957552695</v>
@@ -10901,28 +10901,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.60218243017023</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>113.0507646540079</v>
+        <v>86.26790739395314</v>
       </c>
       <c r="L39" t="n">
-        <v>26.31893554337772</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>19.10626784683684</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>30.36080020794797</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>21.73896317783378</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.74632984952505</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>144.6403758334584</v>
+        <v>144.6403758334583</v>
       </c>
       <c r="K41" t="n">
         <v>220.0898510449805</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>90.43209797343908</v>
+        <v>90.43209797343876</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>101.4359102811311</v>
       </c>
       <c r="L42" t="n">
-        <v>102.1488510866463</v>
+        <v>102.1488510866462</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>94.93618339010546</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>97.56887872110239</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.5762453927937</v>
+        <v>108.3845227673716</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>92.60772947730753</v>
+        <v>92.60772947730744</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>102.5202552543771</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>91.28001577200526</v>
       </c>
       <c r="O43" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>101.3224753559198</v>
+        <v>101.3224753559197</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>144.6403758334586</v>
+        <v>144.6403758334583</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -11375,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>90.43209797343884</v>
+        <v>90.43209797343876</v>
       </c>
       <c r="K45" t="n">
         <v>101.4359102811311</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>102.1488510866462</v>
       </c>
       <c r="M45" t="n">
-        <v>105.7285052287905</v>
+        <v>105.7285052287904</v>
       </c>
       <c r="N45" t="n">
-        <v>94.93618339010546</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>106.1907157512166</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>97.56887872110286</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>92.60772947730753</v>
+        <v>92.60772947730744</v>
       </c>
       <c r="L46" t="n">
         <v>134.8846762812383</v>
@@ -11472,7 +11472,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>101.3224753559198</v>
+        <v>101.3224753559197</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>279.7704915039191</v>
+        <v>279.7704915039189</v>
       </c>
       <c r="C17" t="n">
         <v>262.309541611446</v>
@@ -23740,19 +23740,19 @@
         <v>251.7196914611214</v>
       </c>
       <c r="E17" t="n">
-        <v>278.9670199127003</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F17" t="n">
-        <v>303.9126955821499</v>
+        <v>303.9126955821498</v>
       </c>
       <c r="G17" t="n">
-        <v>312.3393873555735</v>
+        <v>312.3393873555734</v>
       </c>
       <c r="H17" t="n">
-        <v>236.5114519562056</v>
+        <v>236.5114519562055</v>
       </c>
       <c r="I17" t="n">
-        <v>107.5125394108444</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>46.90576778158814</v>
+        <v>46.90576778158808</v>
       </c>
       <c r="S17" t="n">
-        <v>106.0567194266838</v>
+        <v>106.0567194266837</v>
       </c>
       <c r="T17" t="n">
         <v>120.1324994045698</v>
       </c>
       <c r="U17" t="n">
-        <v>148.382302748275</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V17" t="n">
-        <v>224.7889083105734</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W17" t="n">
-        <v>246.2776185578515</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X17" t="n">
-        <v>266.7677505189075</v>
+        <v>266.7677505189074</v>
       </c>
       <c r="Y17" t="n">
         <v>283.274588496492</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63.5698334903058</v>
+        <v>63.56983349030574</v>
       </c>
       <c r="C18" t="n">
-        <v>69.7451488287542</v>
+        <v>69.74514882875414</v>
       </c>
       <c r="D18" t="n">
-        <v>44.48171540507721</v>
+        <v>44.48171540507715</v>
       </c>
       <c r="E18" t="n">
-        <v>54.6817302958394</v>
+        <v>54.68173029583934</v>
       </c>
       <c r="F18" t="n">
-        <v>42.10586223382234</v>
+        <v>42.10586223382228</v>
       </c>
       <c r="G18" t="n">
-        <v>34.38016700364909</v>
+        <v>34.38016700364903</v>
       </c>
       <c r="H18" t="n">
-        <v>9.27209407693492</v>
+        <v>9.272094076934863</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>68.71982094427628</v>
+        <v>68.71982094427622</v>
       </c>
       <c r="T18" t="n">
-        <v>97.20137853526006</v>
+        <v>97.20137853526001</v>
       </c>
       <c r="U18" t="n">
-        <v>122.9780319214133</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V18" t="n">
         <v>129.8372369898637</v>
       </c>
       <c r="W18" t="n">
-        <v>148.7316330013581</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X18" t="n">
         <v>102.8096350439159</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.86863002237575</v>
+        <v>76.8686300223757</v>
       </c>
       <c r="C19" t="n">
-        <v>64.28347093906629</v>
+        <v>64.28347093906623</v>
       </c>
       <c r="D19" t="n">
-        <v>45.65212285865081</v>
+        <v>45.65212285865076</v>
       </c>
       <c r="E19" t="n">
-        <v>43.47061248700763</v>
+        <v>43.47061248700757</v>
       </c>
       <c r="F19" t="n">
-        <v>42.4576978633697</v>
+        <v>42.45769786336965</v>
       </c>
       <c r="G19" t="n">
-        <v>65.02762919889722</v>
+        <v>65.02762919889716</v>
       </c>
       <c r="H19" t="n">
-        <v>59.26382234787803</v>
+        <v>59.26382234787798</v>
       </c>
       <c r="I19" t="n">
-        <v>52.48712476769674</v>
+        <v>52.48712476769668</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>74.33004121760794</v>
+        <v>74.33004121760789</v>
       </c>
       <c r="S19" t="n">
         <v>121.0532478774107</v>
       </c>
       <c r="T19" t="n">
-        <v>124.98223926872</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U19" t="n">
         <v>183.3556791969293</v>
       </c>
       <c r="V19" t="n">
-        <v>149.1742931642665</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W19" t="n">
-        <v>183.5596481770295</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X19" t="n">
         <v>122.7463052294756</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>279.7704915039191</v>
+        <v>279.7704915039189</v>
       </c>
       <c r="C20" t="n">
         <v>262.309541611446</v>
@@ -23977,19 +23977,19 @@
         <v>251.7196914611214</v>
       </c>
       <c r="E20" t="n">
-        <v>278.9670199127003</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F20" t="n">
-        <v>303.9126955821499</v>
+        <v>303.9126955821498</v>
       </c>
       <c r="G20" t="n">
-        <v>312.3393873555735</v>
+        <v>312.3393873555734</v>
       </c>
       <c r="H20" t="n">
-        <v>236.5114519562056</v>
+        <v>236.5114519562055</v>
       </c>
       <c r="I20" t="n">
-        <v>107.5125394108444</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>46.90576778158814</v>
+        <v>46.90576778158808</v>
       </c>
       <c r="S20" t="n">
-        <v>106.0567194266838</v>
+        <v>106.0567194266837</v>
       </c>
       <c r="T20" t="n">
         <v>120.1324994045698</v>
       </c>
       <c r="U20" t="n">
-        <v>148.382302748275</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V20" t="n">
-        <v>224.7889083105734</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W20" t="n">
-        <v>246.2776185578515</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X20" t="n">
-        <v>266.7677505189075</v>
+        <v>266.7677505189074</v>
       </c>
       <c r="Y20" t="n">
         <v>283.274588496492</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.5698334903058</v>
+        <v>63.56983349030574</v>
       </c>
       <c r="C21" t="n">
-        <v>69.7451488287542</v>
+        <v>69.74514882875414</v>
       </c>
       <c r="D21" t="n">
-        <v>44.48171540507721</v>
+        <v>44.48171540507715</v>
       </c>
       <c r="E21" t="n">
-        <v>54.6817302958394</v>
+        <v>54.68173029583934</v>
       </c>
       <c r="F21" t="n">
-        <v>42.10586223382234</v>
+        <v>42.10586223382228</v>
       </c>
       <c r="G21" t="n">
-        <v>34.38016700364909</v>
+        <v>34.38016700364903</v>
       </c>
       <c r="H21" t="n">
-        <v>9.27209407693492</v>
+        <v>9.272094076934863</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,19 +24098,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>68.71982094427628</v>
+        <v>68.71982094427622</v>
       </c>
       <c r="T21" t="n">
-        <v>97.20137853526006</v>
+        <v>97.20137853526001</v>
       </c>
       <c r="U21" t="n">
-        <v>122.9780319214133</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V21" t="n">
         <v>129.8372369898637</v>
       </c>
       <c r="W21" t="n">
-        <v>148.7316330013581</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X21" t="n">
         <v>102.8096350439159</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.86863002237575</v>
+        <v>76.8686300223757</v>
       </c>
       <c r="C22" t="n">
-        <v>64.28347093906629</v>
+        <v>64.28347093906623</v>
       </c>
       <c r="D22" t="n">
-        <v>45.65212285865081</v>
+        <v>45.65212285865076</v>
       </c>
       <c r="E22" t="n">
-        <v>43.47061248700763</v>
+        <v>43.47061248700757</v>
       </c>
       <c r="F22" t="n">
-        <v>42.4576978633697</v>
+        <v>42.45769786336965</v>
       </c>
       <c r="G22" t="n">
-        <v>65.02762919889722</v>
+        <v>65.02762919889716</v>
       </c>
       <c r="H22" t="n">
-        <v>59.26382234787803</v>
+        <v>59.26382234787798</v>
       </c>
       <c r="I22" t="n">
-        <v>52.48712476769674</v>
+        <v>52.48712476769668</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>74.33004121760794</v>
+        <v>74.33004121760789</v>
       </c>
       <c r="S22" t="n">
         <v>121.0532478774107</v>
       </c>
       <c r="T22" t="n">
-        <v>124.98223926872</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U22" t="n">
         <v>183.3556791969293</v>
       </c>
       <c r="V22" t="n">
-        <v>149.1742931642665</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W22" t="n">
-        <v>183.5596481770295</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X22" t="n">
         <v>122.7463052294756</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>279.7704915039191</v>
+        <v>279.7704915039189</v>
       </c>
       <c r="C23" t="n">
         <v>262.309541611446</v>
@@ -24214,19 +24214,19 @@
         <v>251.7196914611214</v>
       </c>
       <c r="E23" t="n">
-        <v>278.9670199127003</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F23" t="n">
-        <v>303.9126955821499</v>
+        <v>303.9126955821498</v>
       </c>
       <c r="G23" t="n">
-        <v>312.3393873555735</v>
+        <v>312.3393873555734</v>
       </c>
       <c r="H23" t="n">
-        <v>236.5114519562056</v>
+        <v>236.5114519562055</v>
       </c>
       <c r="I23" t="n">
-        <v>107.5125394108444</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>46.90576778158814</v>
+        <v>46.90576778158808</v>
       </c>
       <c r="S23" t="n">
-        <v>106.0567194266838</v>
+        <v>106.0567194266837</v>
       </c>
       <c r="T23" t="n">
         <v>120.1324994045698</v>
       </c>
       <c r="U23" t="n">
-        <v>148.382302748275</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V23" t="n">
-        <v>224.7889083105734</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W23" t="n">
-        <v>246.2776185578515</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X23" t="n">
-        <v>266.7677505189075</v>
+        <v>266.7677505189074</v>
       </c>
       <c r="Y23" t="n">
         <v>283.274588496492</v>
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63.5698334903058</v>
+        <v>63.56983349030574</v>
       </c>
       <c r="C24" t="n">
-        <v>69.7451488287542</v>
+        <v>69.74514882875414</v>
       </c>
       <c r="D24" t="n">
-        <v>44.48171540507721</v>
+        <v>44.48171540507715</v>
       </c>
       <c r="E24" t="n">
-        <v>54.6817302958394</v>
+        <v>54.68173029583934</v>
       </c>
       <c r="F24" t="n">
-        <v>42.10586223382234</v>
+        <v>42.10586223382228</v>
       </c>
       <c r="G24" t="n">
-        <v>34.38016700364909</v>
+        <v>34.38016700364903</v>
       </c>
       <c r="H24" t="n">
-        <v>9.27209407693492</v>
+        <v>9.272094076934863</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,19 +24335,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>68.71982094427628</v>
+        <v>68.71982094427622</v>
       </c>
       <c r="T24" t="n">
-        <v>97.20137853526006</v>
+        <v>97.20137853526001</v>
       </c>
       <c r="U24" t="n">
-        <v>122.9780319214133</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V24" t="n">
         <v>129.8372369898637</v>
       </c>
       <c r="W24" t="n">
-        <v>148.7316330013581</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X24" t="n">
         <v>102.8096350439159</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.86863002237575</v>
+        <v>76.8686300223757</v>
       </c>
       <c r="C25" t="n">
-        <v>64.28347093906629</v>
+        <v>64.28347093906623</v>
       </c>
       <c r="D25" t="n">
-        <v>45.65212285865081</v>
+        <v>45.65212285865076</v>
       </c>
       <c r="E25" t="n">
-        <v>43.47061248700763</v>
+        <v>43.47061248700757</v>
       </c>
       <c r="F25" t="n">
-        <v>42.4576978633697</v>
+        <v>42.45769786336965</v>
       </c>
       <c r="G25" t="n">
-        <v>65.02762919889722</v>
+        <v>65.02762919889716</v>
       </c>
       <c r="H25" t="n">
-        <v>59.26382234787803</v>
+        <v>59.26382234787798</v>
       </c>
       <c r="I25" t="n">
-        <v>52.48712476769674</v>
+        <v>52.48712476769668</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>74.33004121760794</v>
+        <v>74.33004121760789</v>
       </c>
       <c r="S25" t="n">
         <v>121.0532478774107</v>
       </c>
       <c r="T25" t="n">
-        <v>124.98223926872</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U25" t="n">
         <v>183.3556791969293</v>
       </c>
       <c r="V25" t="n">
-        <v>149.1742931642665</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W25" t="n">
-        <v>183.5596481770295</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X25" t="n">
         <v>122.7463052294756</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>346.3283129702527</v>
+        <v>346.3283129702526</v>
       </c>
       <c r="C41" t="n">
-        <v>328.8673630777797</v>
+        <v>328.8673630777796</v>
       </c>
       <c r="D41" t="n">
-        <v>318.2775129274551</v>
+        <v>318.277512927455</v>
       </c>
       <c r="E41" t="n">
-        <v>345.5248413790339</v>
+        <v>345.5248413790338</v>
       </c>
       <c r="F41" t="n">
-        <v>370.4705170484836</v>
+        <v>370.4705170484835</v>
       </c>
       <c r="G41" t="n">
-        <v>378.8972088219072</v>
+        <v>378.8972088219071</v>
       </c>
       <c r="H41" t="n">
-        <v>303.0692734225393</v>
+        <v>303.0692734225392</v>
       </c>
       <c r="I41" t="n">
-        <v>174.0703608771781</v>
+        <v>174.070360877178</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>113.4635892479218</v>
+        <v>113.4635892479217</v>
       </c>
       <c r="S41" t="n">
-        <v>172.6145408930175</v>
+        <v>172.6145408930174</v>
       </c>
       <c r="T41" t="n">
-        <v>186.6903208709035</v>
+        <v>186.6903208709034</v>
       </c>
       <c r="U41" t="n">
-        <v>214.9401242146087</v>
+        <v>214.9401242146085</v>
       </c>
       <c r="V41" t="n">
-        <v>291.3467297769071</v>
+        <v>291.346729776907</v>
       </c>
       <c r="W41" t="n">
-        <v>312.8354400241852</v>
+        <v>312.8354400241851</v>
       </c>
       <c r="X41" t="n">
-        <v>333.3255719852412</v>
+        <v>333.3255719852411</v>
       </c>
       <c r="Y41" t="n">
-        <v>349.8324099628257</v>
+        <v>349.8324099628256</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>130.1276549566395</v>
+        <v>130.1276549566394</v>
       </c>
       <c r="C42" t="n">
-        <v>136.3029702950879</v>
+        <v>136.3029702950878</v>
       </c>
       <c r="D42" t="n">
-        <v>111.0395368714109</v>
+        <v>111.0395368714108</v>
       </c>
       <c r="E42" t="n">
-        <v>121.2395517621731</v>
+        <v>121.239551762173</v>
       </c>
       <c r="F42" t="n">
-        <v>108.663683700156</v>
+        <v>108.6636837001559</v>
       </c>
       <c r="G42" t="n">
-        <v>100.9379884699828</v>
+        <v>100.9379884699827</v>
       </c>
       <c r="H42" t="n">
-        <v>75.82991554326861</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="I42" t="n">
-        <v>52.99110415818723</v>
+        <v>52.99110415818714</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>63.75230545941528</v>
+        <v>63.7523054594152</v>
       </c>
       <c r="S42" t="n">
-        <v>135.27764241061</v>
+        <v>135.2776424106099</v>
       </c>
       <c r="T42" t="n">
         <v>163.7592000015937</v>
       </c>
       <c r="U42" t="n">
-        <v>189.535853387747</v>
+        <v>189.5358533877469</v>
       </c>
       <c r="V42" t="n">
-        <v>196.3950584561974</v>
+        <v>196.3950584561973</v>
       </c>
       <c r="W42" t="n">
-        <v>215.2894544676918</v>
+        <v>215.2894544676917</v>
       </c>
       <c r="X42" t="n">
         <v>169.3674565102496</v>
       </c>
       <c r="Y42" t="n">
-        <v>169.2771670840765</v>
+        <v>169.2771670840764</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>143.4264514887095</v>
+        <v>143.4264514887093</v>
       </c>
       <c r="C43" t="n">
-        <v>130.8412924054</v>
+        <v>130.8412924053999</v>
       </c>
       <c r="D43" t="n">
-        <v>112.2099443249845</v>
+        <v>112.2099443249844</v>
       </c>
       <c r="E43" t="n">
-        <v>110.0284339533413</v>
+        <v>110.0284339533412</v>
       </c>
       <c r="F43" t="n">
-        <v>109.0155193297034</v>
+        <v>109.0155193297033</v>
       </c>
       <c r="G43" t="n">
-        <v>131.5854506652309</v>
+        <v>131.5854506652308</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8216438142117</v>
+        <v>125.8216438142116</v>
       </c>
       <c r="I43" t="n">
-        <v>119.0449462340304</v>
+        <v>119.0449462340303</v>
       </c>
       <c r="J43" t="n">
-        <v>56.95365142344492</v>
+        <v>56.95365142344484</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.75651455846653</v>
+        <v>49.75651455846645</v>
       </c>
       <c r="R43" t="n">
-        <v>140.8878626839416</v>
+        <v>140.8878626839415</v>
       </c>
       <c r="S43" t="n">
-        <v>187.6110693437444</v>
+        <v>187.6110693437443</v>
       </c>
       <c r="T43" t="n">
-        <v>191.5400607350537</v>
+        <v>191.5400607350535</v>
       </c>
       <c r="U43" t="n">
-        <v>249.9135006632631</v>
+        <v>249.9135006632629</v>
       </c>
       <c r="V43" t="n">
-        <v>215.7321146306002</v>
+        <v>215.7321146306001</v>
       </c>
       <c r="W43" t="n">
-        <v>250.1174696433632</v>
+        <v>250.1174696433631</v>
       </c>
       <c r="X43" t="n">
-        <v>189.3041266958093</v>
+        <v>189.3041266958092</v>
       </c>
       <c r="Y43" t="n">
-        <v>182.179124658867</v>
+        <v>182.1791246588668</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>346.3283129702527</v>
+        <v>346.3283129702526</v>
       </c>
       <c r="C44" t="n">
-        <v>328.8673630777797</v>
+        <v>328.8673630777796</v>
       </c>
       <c r="D44" t="n">
-        <v>318.2775129274551</v>
+        <v>318.277512927455</v>
       </c>
       <c r="E44" t="n">
-        <v>345.5248413790339</v>
+        <v>345.5248413790338</v>
       </c>
       <c r="F44" t="n">
-        <v>370.4705170484836</v>
+        <v>370.4705170484835</v>
       </c>
       <c r="G44" t="n">
-        <v>378.8972088219072</v>
+        <v>378.8972088219071</v>
       </c>
       <c r="H44" t="n">
-        <v>303.0692734225393</v>
+        <v>303.0692734225392</v>
       </c>
       <c r="I44" t="n">
-        <v>174.0703608771781</v>
+        <v>174.070360877178</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>113.4635892479218</v>
+        <v>113.4635892479217</v>
       </c>
       <c r="S44" t="n">
-        <v>172.6145408930175</v>
+        <v>172.6145408930174</v>
       </c>
       <c r="T44" t="n">
-        <v>186.6903208709035</v>
+        <v>186.6903208709034</v>
       </c>
       <c r="U44" t="n">
-        <v>214.9401242146087</v>
+        <v>214.9401242146085</v>
       </c>
       <c r="V44" t="n">
-        <v>291.3467297769071</v>
+        <v>291.346729776907</v>
       </c>
       <c r="W44" t="n">
-        <v>312.8354400241852</v>
+        <v>312.8354400241851</v>
       </c>
       <c r="X44" t="n">
-        <v>333.3255719852412</v>
+        <v>333.3255719852411</v>
       </c>
       <c r="Y44" t="n">
-        <v>349.8324099628257</v>
+        <v>349.8324099628256</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>130.1276549566395</v>
+        <v>130.1276549566394</v>
       </c>
       <c r="C45" t="n">
-        <v>136.3029702950879</v>
+        <v>136.3029702950878</v>
       </c>
       <c r="D45" t="n">
-        <v>111.0395368714109</v>
+        <v>111.0395368714108</v>
       </c>
       <c r="E45" t="n">
-        <v>121.2395517621731</v>
+        <v>121.239551762173</v>
       </c>
       <c r="F45" t="n">
-        <v>108.663683700156</v>
+        <v>108.6636837001559</v>
       </c>
       <c r="G45" t="n">
-        <v>100.9379884699828</v>
+        <v>100.9379884699827</v>
       </c>
       <c r="H45" t="n">
-        <v>75.82991554326861</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="I45" t="n">
-        <v>52.99110415818723</v>
+        <v>52.99110415818714</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>63.75230545941528</v>
+        <v>63.7523054594152</v>
       </c>
       <c r="S45" t="n">
-        <v>135.27764241061</v>
+        <v>135.2776424106099</v>
       </c>
       <c r="T45" t="n">
         <v>163.7592000015937</v>
       </c>
       <c r="U45" t="n">
-        <v>189.535853387747</v>
+        <v>189.5358533877469</v>
       </c>
       <c r="V45" t="n">
-        <v>196.3950584561974</v>
+        <v>196.3950584561973</v>
       </c>
       <c r="W45" t="n">
-        <v>215.2894544676918</v>
+        <v>215.2894544676917</v>
       </c>
       <c r="X45" t="n">
         <v>169.3674565102496</v>
       </c>
       <c r="Y45" t="n">
-        <v>169.2771670840765</v>
+        <v>169.2771670840764</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>143.4264514887095</v>
+        <v>143.4264514887093</v>
       </c>
       <c r="C46" t="n">
-        <v>130.8412924054</v>
+        <v>130.8412924053999</v>
       </c>
       <c r="D46" t="n">
-        <v>112.2099443249845</v>
+        <v>112.2099443249844</v>
       </c>
       <c r="E46" t="n">
-        <v>110.0284339533413</v>
+        <v>110.0284339533412</v>
       </c>
       <c r="F46" t="n">
-        <v>109.0155193297034</v>
+        <v>109.0155193297033</v>
       </c>
       <c r="G46" t="n">
-        <v>131.5854506652309</v>
+        <v>131.5854506652308</v>
       </c>
       <c r="H46" t="n">
-        <v>125.8216438142117</v>
+        <v>125.8216438142116</v>
       </c>
       <c r="I46" t="n">
-        <v>119.0449462340304</v>
+        <v>119.0449462340303</v>
       </c>
       <c r="J46" t="n">
-        <v>56.95365142344492</v>
+        <v>56.95365142344484</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.75651455846653</v>
+        <v>49.75651455846645</v>
       </c>
       <c r="R46" t="n">
-        <v>140.8878626839416</v>
+        <v>140.8878626839415</v>
       </c>
       <c r="S46" t="n">
-        <v>187.6110693437444</v>
+        <v>187.6110693437443</v>
       </c>
       <c r="T46" t="n">
-        <v>191.5400607350537</v>
+        <v>191.5400607350535</v>
       </c>
       <c r="U46" t="n">
-        <v>249.9135006632631</v>
+        <v>249.9135006632629</v>
       </c>
       <c r="V46" t="n">
-        <v>215.7321146306002</v>
+        <v>215.7321146306001</v>
       </c>
       <c r="W46" t="n">
-        <v>250.1174696433632</v>
+        <v>250.1174696433631</v>
       </c>
       <c r="X46" t="n">
-        <v>189.3041266958093</v>
+        <v>189.3041266958092</v>
       </c>
       <c r="Y46" t="n">
-        <v>182.179124658867</v>
+        <v>182.1791246588668</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>452253.2756782529</v>
+        <v>452253.275678253</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>452253.275678253</v>
+        <v>452253.2756782529</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>472965.0206064279</v>
+        <v>472965.0206064284</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>472965.0206064279</v>
+        <v>472965.0206064285</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>472965.020606428</v>
+        <v>472965.0206064284</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>452253.2756782529</v>
+        <v>452253.275678253</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>364625.6465561762</v>
+        <v>364625.6465561765</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>364625.6465561762</v>
+        <v>364625.6465561765</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811861</v>
+        <v>778312.5217811862</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="D2" t="n">
         <v>778312.5217811863</v>
       </c>
       <c r="E2" t="n">
-        <v>408914.7838453704</v>
+        <v>408914.7838453709</v>
       </c>
       <c r="F2" t="n">
-        <v>408914.7838453706</v>
+        <v>408914.7838453705</v>
       </c>
       <c r="G2" t="n">
-        <v>438452.9154153265</v>
+        <v>438452.9154153276</v>
       </c>
       <c r="H2" t="n">
-        <v>438452.9154153268</v>
+        <v>438452.9154153276</v>
       </c>
       <c r="I2" t="n">
-        <v>438452.9154153265</v>
+        <v>438452.9154153281</v>
       </c>
       <c r="J2" t="n">
-        <v>408914.7838453706</v>
+        <v>408914.783845371</v>
       </c>
       <c r="K2" t="n">
-        <v>408914.7838453704</v>
+        <v>408914.7838453708</v>
       </c>
       <c r="L2" t="n">
-        <v>458282.5866920232</v>
+        <v>458282.5866920234</v>
       </c>
       <c r="M2" t="n">
+        <v>458282.5866920233</v>
+      </c>
+      <c r="N2" t="n">
         <v>458282.5866920231</v>
       </c>
-      <c r="N2" t="n">
-        <v>458282.5866920232</v>
-      </c>
       <c r="O2" t="n">
-        <v>288974.2797907824</v>
+        <v>288974.2797907831</v>
       </c>
       <c r="P2" t="n">
-        <v>288974.2797907825</v>
+        <v>288974.279790783</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10853.37384651717</v>
+        <v>10853.37384651722</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60663.93243461489</v>
+        <v>60663.93243461482</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>29124.42295458228</v>
+        <v>29124.42295458233</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>250936.2960691124</v>
       </c>
       <c r="F4" t="n">
-        <v>250936.2960691124</v>
+        <v>250936.2960691123</v>
       </c>
       <c r="G4" t="n">
+        <v>268480.2235086658</v>
+      </c>
+      <c r="H4" t="n">
         <v>268480.2235086657</v>
       </c>
-      <c r="H4" t="n">
-        <v>268480.2235086656</v>
-      </c>
       <c r="I4" t="n">
-        <v>268480.2235086657</v>
+        <v>268480.2235086658</v>
       </c>
       <c r="J4" t="n">
         <v>250936.2960691124</v>
@@ -26456,10 +26456,10 @@
         <v>280244.4178675696</v>
       </c>
       <c r="O4" t="n">
-        <v>179526.7936848579</v>
+        <v>179526.7936848581</v>
       </c>
       <c r="P4" t="n">
-        <v>179526.7936848579</v>
+        <v>179526.793684858</v>
       </c>
     </row>
     <row r="5">
@@ -26484,13 +26484,13 @@
         <v>7515.485527185614</v>
       </c>
       <c r="G5" t="n">
-        <v>8656.02588456418</v>
+        <v>8656.025884564184</v>
       </c>
       <c r="H5" t="n">
-        <v>8656.02588456418</v>
+        <v>8656.025884564184</v>
       </c>
       <c r="I5" t="n">
-        <v>8656.02588456418</v>
+        <v>8656.025884564184</v>
       </c>
       <c r="J5" t="n">
         <v>7515.485527185614</v>
@@ -26508,10 +26508,10 @@
         <v>9435.521561518022</v>
       </c>
       <c r="O5" t="n">
-        <v>3060.576391710972</v>
+        <v>3060.576391710979</v>
       </c>
       <c r="P5" t="n">
-        <v>3060.576391710972</v>
+        <v>3060.576391710979</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277068.9618494549</v>
+        <v>277024.8260707739</v>
       </c>
       <c r="C6" t="n">
-        <v>277068.9618494553</v>
+        <v>277024.826070774</v>
       </c>
       <c r="D6" t="n">
-        <v>277068.9618494551</v>
+        <v>277024.826070774</v>
       </c>
       <c r="E6" t="n">
-        <v>78945.69596794038</v>
+        <v>69180.5670856857</v>
       </c>
       <c r="F6" t="n">
-        <v>150463.0022490727</v>
+        <v>140697.8733668174</v>
       </c>
       <c r="G6" t="n">
-        <v>150463.2921755795</v>
+        <v>141475.4825451662</v>
       </c>
       <c r="H6" t="n">
-        <v>161316.666022097</v>
+        <v>152328.8563916835</v>
       </c>
       <c r="I6" t="n">
-        <v>161316.6660220967</v>
+        <v>152328.8563916838</v>
       </c>
       <c r="J6" t="n">
-        <v>89799.06981445779</v>
+        <v>80033.940932203</v>
       </c>
       <c r="K6" t="n">
-        <v>150463.0022490724</v>
+        <v>140697.8733668176</v>
       </c>
       <c r="L6" t="n">
-        <v>139478.2243083533</v>
+        <v>131012.2481325891</v>
       </c>
       <c r="M6" t="n">
-        <v>168602.6472629355</v>
+        <v>160136.6710871713</v>
       </c>
       <c r="N6" t="n">
-        <v>168602.6472629356</v>
+        <v>160136.6710871712</v>
       </c>
       <c r="O6" t="n">
-        <v>106386.9097142135</v>
+        <v>93465.4517778907</v>
       </c>
       <c r="P6" t="n">
-        <v>106386.9097142136</v>
+        <v>93465.45177789062</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>89.39663285141508</v>
       </c>
       <c r="G2" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H2" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I2" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J2" t="n">
         <v>89.39663285141508</v>
@@ -26724,10 +26724,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="P2" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="3">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.56671730814647</v>
+        <v>13.56671730814652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>75.82991554326861</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322791</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>13.56671730814647</v>
+        <v>13.56671730814652</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>75.82991554326861</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28122,13 +28122,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -28192,16 +28192,16 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>89.39663285141508</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -28274,25 +28274,25 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K13" t="n">
-        <v>50.91279378714368</v>
+        <v>74.9266069405874</v>
       </c>
       <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q13" t="n">
         <v>89.39663285141508</v>
-      </c>
-      <c r="M13" t="n">
-        <v>89.39663285141508</v>
-      </c>
-      <c r="N13" t="n">
-        <v>89.39663285141508</v>
-      </c>
-      <c r="O13" t="n">
-        <v>89.39663285141508</v>
-      </c>
-      <c r="P13" t="n">
-        <v>89.39663285141508</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>89.39663285141508</v>
@@ -28359,10 +28359,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -28429,10 +28429,10 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>89.39663285141508</v>
+        <v>59.18180303014896</v>
       </c>
       <c r="K15" t="n">
-        <v>65.78242794726793</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -28441,7 +28441,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="L16" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>89.39663285141508</v>
@@ -28523,10 +28523,10 @@
         <v>89.39663285141508</v>
       </c>
       <c r="O16" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>89.39663285141508</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>89.39663285141508</v>
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J17" t="n">
-        <v>102.9633501595615</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>102.9633501595615</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y17" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="18">
@@ -28642,31 +28642,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28681,37 +28681,37 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.20645423924368</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>102.9633501595615</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y18" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K19" t="n">
-        <v>102.9633501595615</v>
+        <v>85.84863203510567</v>
       </c>
       <c r="L19" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="20">
@@ -28800,37 +28800,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28839,37 +28839,37 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y20" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="21">
@@ -28879,37 +28879,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>102.9633501595615</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>79.20645423924478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -28924,31 +28924,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y21" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="L22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M22" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>102.9633501595615</v>
+        <v>46.65608027286279</v>
       </c>
       <c r="P22" t="n">
-        <v>102.9633501595615</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y22" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="23">
@@ -29037,31 +29037,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29082,31 +29082,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y23" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="24">
@@ -29116,46 +29116,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>79.20645423923544</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M24" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>102.9633501595615</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y24" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="25">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K25" t="n">
-        <v>60.99283403366264</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="L25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="N25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="O25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.9633501595615</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="26">
@@ -29301,7 +29301,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -29392,7 +29392,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -29459,19 +29459,19 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K28" t="n">
-        <v>89.39663285141508</v>
+        <v>87.90668897055797</v>
       </c>
       <c r="L28" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>89.39663285141508</v>
-      </c>
-      <c r="N28" t="n">
-        <v>89.39663285141508</v>
-      </c>
-      <c r="O28" t="n">
-        <v>47.67820418742016</v>
       </c>
       <c r="P28" t="n">
         <v>89.39663285141508</v>
@@ -29614,16 +29614,16 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>89.39663285141772</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>89.39663285141484</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -29635,7 +29635,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>89.39663285141508</v>
@@ -29854,22 +29854,22 @@
         <v>112.2354442364965</v>
       </c>
       <c r="K33" t="n">
-        <v>112.2354442364965</v>
+        <v>86.77973290604568</v>
       </c>
       <c r="L33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="M33" t="n">
-        <v>24.79067432035136</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>112.2354442364965</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>112.2354442364965</v>
@@ -30091,10 +30091,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>12.71306423650077</v>
       </c>
       <c r="L36" t="n">
-        <v>24.79067432035109</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M36" t="n">
         <v>112.2354442364965</v>
@@ -30109,10 +30109,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
         <v>112.2354442364965</v>
-      </c>
-      <c r="R36" t="n">
-        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>112.2354442364965</v>
@@ -30249,7 +30249,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30261,7 +30261,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30325,28 +30325,28 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K39" t="n">
+        <v>51.57353158040586</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>112.2354442364965</v>
       </c>
-      <c r="K39" t="n">
-        <v>24.79067432035109</v>
-      </c>
-      <c r="L39" t="n">
-        <v>112.2354442364965</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>112.2354442364965</v>
-      </c>
-      <c r="O39" t="n">
-        <v>112.2354442364965</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
       <c r="Q39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -30459,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30504,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="R41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y41" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J42" t="n">
-        <v>36.40552869322762</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="L42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>36.40552869322785</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>36.40552869322785</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.40552869322785</v>
+        <v>31.59725131864994</v>
       </c>
       <c r="R42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y42" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="R43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="44">
@@ -30696,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J44" t="n">
-        <v>36.40552869322764</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30741,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="R44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y44" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="M45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="N45" t="n">
-        <v>36.40552869322785</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>36.40552869322785</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>36.40552869322737</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y45" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="46">
@@ -30854,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30896,34 +30896,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="R46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.40552869322785</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
   </sheetData>
